--- a/Attached Datasheets/Components10000CreatedVuguManual.xlsx
+++ b/Attached Datasheets/Components10000CreatedVuguManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ferdi\bachelor\Attached Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D033088-AB9F-4D85-951E-3B75C9781CFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553D14C1-10F6-400D-9CC4-17E45B5BF6F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="4365" windowWidth="43200" windowHeight="11835" xr2:uid="{927A8106-CBDC-4DDB-8A0B-A7086F54E751}"/>
   </bookViews>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC8065F-C0B4-49EE-98D2-B1AAEE245F0F}">
   <dimension ref="B16:S1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1342,7 @@
         <v>6170</v>
       </c>
       <c r="Q30" s="8">
-        <v>6170</v>
+        <v>0</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>49</v>
@@ -1382,7 +1382,7 @@
         <v>2700</v>
       </c>
       <c r="Q31" s="8">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>52</v>
